--- a/NEW HR/PEREY, GENNILYN MARTINEZ.xlsx
+++ b/NEW HR/PEREY, GENNILYN MARTINEZ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>5/4,5/2023</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1207,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1247,7 +1250,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1311,7 +1314,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1374,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1440,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1503,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1601,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1660,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1725,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1768,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1843,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2029,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2095,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2153,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2219,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2272,7 +2275,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2350,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2393,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2459,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2515,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2988,9 +2991,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A58" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3160,7 +3163,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3170,7 +3173,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4548,15 +4551,19 @@
       <c r="K77" s="21"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
+      <c r="A78" s="42">
+        <v>44986</v>
+      </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="41"/>
       <c r="E78" s="10"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="41"/>
       <c r="I78" s="10"/>
@@ -4564,15 +4571,19 @@
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
+      <c r="A79" s="42">
+        <v>45017</v>
+      </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="41"/>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="10"/>
@@ -4580,8 +4591,12 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="21"/>
+      <c r="A80" s="42">
+        <v>45047</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>64</v>
+      </c>
       <c r="C80" s="14"/>
       <c r="D80" s="41"/>
       <c r="E80" s="10"/>
@@ -4590,10 +4605,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="41"/>
+      <c r="H80" s="41">
+        <v>2</v>
+      </c>
       <c r="I80" s="10"/>
       <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
+      <c r="K80" s="21" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>
@@ -7823,17 +7842,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/PEREY, GENNILYN MARTINEZ.xlsx
+++ b/NEW HR/PEREY, GENNILYN MARTINEZ.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>5/4,5/2023</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>6/8,9/2023</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1213,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,7 +1256,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1314,7 +1320,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,7 +1380,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1440,7 +1446,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1503,7 +1509,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1607,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1666,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1731,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1774,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1843,7 +1849,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2035,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,7 +2101,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2153,7 +2159,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2219,7 +2225,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2281,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,7 +2356,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2399,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2459,7 +2465,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2521,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,9 +2997,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3163,7 +3169,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>54.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3173,7 +3179,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>78</v>
+        <v>79.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4597,13 +4603,15 @@
       <c r="B80" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="41"/>
       <c r="E80" s="10"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="41">
         <v>2</v>
@@ -4616,9 +4624,13 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>
-      <c r="B81" s="21"/>
+      <c r="B81" s="21" t="s">
+        <v>73</v>
+      </c>
       <c r="C81" s="14"/>
-      <c r="D81" s="41"/>
+      <c r="D81" s="41">
+        <v>2</v>
+      </c>
       <c r="E81" s="10"/>
       <c r="F81" s="21"/>
       <c r="G81" s="14" t="str">
@@ -4628,7 +4640,9 @@
       <c r="H81" s="41"/>
       <c r="I81" s="10"/>
       <c r="J81" s="12"/>
-      <c r="K81" s="21"/>
+      <c r="K81" s="21" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
@@ -7842,17 +7856,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
